--- a/Jan'2021/Daily Sales Details/07.01.2021/BL Sales Info.xlsx
+++ b/Jan'2021/Daily Sales Details/07.01.2021/BL Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2399,6 +2399,15 @@
     <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2417,12 +2426,6 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2519,19 +2522,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2558,16 +2555,19 @@
     <xf numFmtId="0" fontId="16" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3046,7 +3046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -3058,70 +3058,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
-      <c r="P1" s="285"/>
-      <c r="Q1" s="285"/>
-      <c r="R1" s="285"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="288"/>
+      <c r="P1" s="288"/>
+      <c r="Q1" s="288"/>
+      <c r="R1" s="288"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="289" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
-      <c r="L2" s="286"/>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="289"/>
+      <c r="K2" s="289"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="289"/>
+      <c r="N2" s="289"/>
+      <c r="O2" s="289"/>
+      <c r="P2" s="289"/>
+      <c r="Q2" s="289"/>
+      <c r="R2" s="289"/>
     </row>
     <row r="3" spans="1:25" s="136" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="298" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="298"/>
-      <c r="N3" s="298"/>
-      <c r="O3" s="298"/>
-      <c r="P3" s="298"/>
-      <c r="Q3" s="298"/>
-      <c r="R3" s="299"/>
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="299"/>
+      <c r="K3" s="299"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
+      <c r="O3" s="299"/>
+      <c r="P3" s="299"/>
+      <c r="Q3" s="299"/>
+      <c r="R3" s="300"/>
       <c r="T3" s="137"/>
       <c r="U3" s="138"/>
       <c r="V3" s="138"/>
@@ -3130,55 +3130,55 @@
       <c r="Y3" s="139"/>
     </row>
     <row r="4" spans="1:25" s="139" customFormat="1">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="289" t="s">
+      <c r="B4" s="292" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="289" t="s">
+      <c r="C4" s="292" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="291" t="s">
+      <c r="D4" s="286" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="291" t="s">
+      <c r="E4" s="286" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="291" t="s">
+      <c r="F4" s="286" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="291" t="s">
+      <c r="G4" s="286" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="291" t="s">
+      <c r="H4" s="286" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="291" t="s">
+      <c r="I4" s="286" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="291" t="s">
+      <c r="J4" s="286" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="300" t="s">
+      <c r="K4" s="301" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="302" t="s">
+      <c r="L4" s="303" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="304" t="s">
+      <c r="M4" s="305" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="306" t="s">
+      <c r="N4" s="307" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="308" t="s">
+      <c r="O4" s="309" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="293" t="s">
+      <c r="P4" s="294" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="295" t="s">
+      <c r="Q4" s="296" t="s">
         <v>50</v>
       </c>
       <c r="R4" s="140" t="s">
@@ -3191,23 +3191,23 @@
       <c r="X4" s="138"/>
     </row>
     <row r="5" spans="1:25" s="139" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="288"/>
-      <c r="B5" s="290"/>
-      <c r="C5" s="290"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="292"/>
-      <c r="K5" s="301"/>
-      <c r="L5" s="303"/>
-      <c r="M5" s="305"/>
-      <c r="N5" s="307"/>
-      <c r="O5" s="309"/>
-      <c r="P5" s="294"/>
-      <c r="Q5" s="296"/>
+      <c r="A5" s="291"/>
+      <c r="B5" s="293"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
+      <c r="G5" s="287"/>
+      <c r="H5" s="287"/>
+      <c r="I5" s="287"/>
+      <c r="J5" s="287"/>
+      <c r="K5" s="302"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="306"/>
+      <c r="N5" s="308"/>
+      <c r="O5" s="310"/>
+      <c r="P5" s="295"/>
+      <c r="Q5" s="297"/>
       <c r="R5" s="142" t="s">
         <v>52</v>
       </c>
@@ -6147,6 +6147,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -6163,10 +6167,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6192,12 +6192,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="311" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="312"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="313"/>
       <c r="F1" s="14"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -6212,12 +6212,12 @@
       <c r="S1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" thickBot="1">
-      <c r="A2" s="313" t="s">
+      <c r="A2" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="314"/>
-      <c r="C2" s="314"/>
-      <c r="D2" s="315"/>
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="316"/>
       <c r="F2" s="14"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -8179,23 +8179,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="320" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="321"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="322"/>
       <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:9" ht="21.75">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="323" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="323"/>
-      <c r="C2" s="323"/>
-      <c r="D2" s="323"/>
-      <c r="E2" s="324"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="325"/>
     </row>
     <row r="3" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="62" t="s">
@@ -8404,11 +8404,11 @@
       <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:7" ht="23.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A17" s="316"/>
-      <c r="B17" s="317"/>
-      <c r="C17" s="317"/>
-      <c r="D17" s="317"/>
-      <c r="E17" s="318"/>
+      <c r="A17" s="317"/>
+      <c r="B17" s="318"/>
+      <c r="C17" s="318"/>
+      <c r="D17" s="318"/>
+      <c r="E17" s="319"/>
       <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:7">
@@ -8565,11 +8565,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD65539"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="25" ySplit="8" topLeftCell="Z36" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="25" ySplit="8" topLeftCell="Z9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AO43" sqref="AO43"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8621,160 +8621,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30.75">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="337" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="325"/>
-      <c r="P1" s="325"/>
-      <c r="Q1" s="325"/>
-      <c r="R1" s="325"/>
-      <c r="S1" s="325"/>
-      <c r="T1" s="325"/>
-      <c r="U1" s="325"/>
-      <c r="V1" s="325"/>
-      <c r="W1" s="325"/>
-      <c r="X1" s="325"/>
-      <c r="Y1" s="325"/>
-      <c r="Z1" s="325"/>
-      <c r="AA1" s="325"/>
-      <c r="AB1" s="325"/>
-      <c r="AC1" s="325"/>
-      <c r="AD1" s="325"/>
-      <c r="AE1" s="325"/>
-      <c r="AF1" s="325"/>
-      <c r="AG1" s="325"/>
-      <c r="AH1" s="325"/>
-      <c r="AI1" s="325"/>
-      <c r="AJ1" s="325"/>
-      <c r="AK1" s="325"/>
-      <c r="AL1" s="325"/>
-      <c r="AM1" s="325"/>
-      <c r="AN1" s="325"/>
-      <c r="AO1" s="325"/>
-      <c r="AP1" s="325"/>
-      <c r="AQ1" s="325"/>
-      <c r="AR1" s="325"/>
-      <c r="AS1" s="325"/>
-      <c r="AT1" s="325"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
+      <c r="M1" s="337"/>
+      <c r="N1" s="337"/>
+      <c r="O1" s="337"/>
+      <c r="P1" s="337"/>
+      <c r="Q1" s="337"/>
+      <c r="R1" s="337"/>
+      <c r="S1" s="337"/>
+      <c r="T1" s="337"/>
+      <c r="U1" s="337"/>
+      <c r="V1" s="337"/>
+      <c r="W1" s="337"/>
+      <c r="X1" s="337"/>
+      <c r="Y1" s="337"/>
+      <c r="Z1" s="337"/>
+      <c r="AA1" s="337"/>
+      <c r="AB1" s="337"/>
+      <c r="AC1" s="337"/>
+      <c r="AD1" s="337"/>
+      <c r="AE1" s="337"/>
+      <c r="AF1" s="337"/>
+      <c r="AG1" s="337"/>
+      <c r="AH1" s="337"/>
+      <c r="AI1" s="337"/>
+      <c r="AJ1" s="337"/>
+      <c r="AK1" s="337"/>
+      <c r="AL1" s="337"/>
+      <c r="AM1" s="337"/>
+      <c r="AN1" s="337"/>
+      <c r="AO1" s="337"/>
+      <c r="AP1" s="337"/>
+      <c r="AQ1" s="337"/>
+      <c r="AR1" s="337"/>
+      <c r="AS1" s="337"/>
+      <c r="AT1" s="337"/>
     </row>
     <row r="2" spans="1:56" ht="21" thickBot="1">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="338" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="326"/>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
-      <c r="N2" s="326"/>
-      <c r="O2" s="326"/>
-      <c r="P2" s="326"/>
-      <c r="Q2" s="326"/>
-      <c r="R2" s="326"/>
-      <c r="S2" s="326"/>
-      <c r="T2" s="326"/>
-      <c r="U2" s="326"/>
-      <c r="V2" s="326"/>
-      <c r="W2" s="326"/>
-      <c r="X2" s="326"/>
-      <c r="Y2" s="326"/>
-      <c r="Z2" s="326"/>
-      <c r="AA2" s="326"/>
-      <c r="AB2" s="326"/>
-      <c r="AC2" s="326"/>
-      <c r="AD2" s="326"/>
-      <c r="AE2" s="326"/>
-      <c r="AF2" s="326"/>
-      <c r="AG2" s="326"/>
-      <c r="AH2" s="326"/>
-      <c r="AI2" s="326"/>
-      <c r="AJ2" s="326"/>
-      <c r="AK2" s="326"/>
-      <c r="AL2" s="326"/>
-      <c r="AM2" s="326"/>
-      <c r="AN2" s="326"/>
-      <c r="AO2" s="326"/>
-      <c r="AP2" s="326"/>
-      <c r="AQ2" s="326"/>
-      <c r="AR2" s="326"/>
-      <c r="AS2" s="326"/>
-      <c r="AT2" s="326"/>
+      <c r="B2" s="338"/>
+      <c r="C2" s="338"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="338"/>
+      <c r="G2" s="338"/>
+      <c r="H2" s="338"/>
+      <c r="I2" s="338"/>
+      <c r="J2" s="338"/>
+      <c r="K2" s="338"/>
+      <c r="L2" s="338"/>
+      <c r="M2" s="338"/>
+      <c r="N2" s="338"/>
+      <c r="O2" s="338"/>
+      <c r="P2" s="338"/>
+      <c r="Q2" s="338"/>
+      <c r="R2" s="338"/>
+      <c r="S2" s="338"/>
+      <c r="T2" s="338"/>
+      <c r="U2" s="338"/>
+      <c r="V2" s="338"/>
+      <c r="W2" s="338"/>
+      <c r="X2" s="338"/>
+      <c r="Y2" s="338"/>
+      <c r="Z2" s="338"/>
+      <c r="AA2" s="338"/>
+      <c r="AB2" s="338"/>
+      <c r="AC2" s="338"/>
+      <c r="AD2" s="338"/>
+      <c r="AE2" s="338"/>
+      <c r="AF2" s="338"/>
+      <c r="AG2" s="338"/>
+      <c r="AH2" s="338"/>
+      <c r="AI2" s="338"/>
+      <c r="AJ2" s="338"/>
+      <c r="AK2" s="338"/>
+      <c r="AL2" s="338"/>
+      <c r="AM2" s="338"/>
+      <c r="AN2" s="338"/>
+      <c r="AO2" s="338"/>
+      <c r="AP2" s="338"/>
+      <c r="AQ2" s="338"/>
+      <c r="AR2" s="338"/>
+      <c r="AS2" s="338"/>
+      <c r="AT2" s="338"/>
     </row>
     <row r="3" spans="1:56" ht="18.75">
-      <c r="A3" s="327" t="s">
+      <c r="A3" s="339" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="328"/>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="329"/>
-      <c r="M3" s="329"/>
-      <c r="N3" s="329"/>
-      <c r="O3" s="329"/>
-      <c r="P3" s="329"/>
-      <c r="Q3" s="329"/>
-      <c r="R3" s="329"/>
-      <c r="S3" s="329"/>
-      <c r="T3" s="329"/>
-      <c r="U3" s="329"/>
-      <c r="V3" s="329"/>
-      <c r="W3" s="329"/>
-      <c r="X3" s="329"/>
-      <c r="Y3" s="329"/>
-      <c r="Z3" s="329"/>
-      <c r="AA3" s="329"/>
-      <c r="AB3" s="329"/>
-      <c r="AC3" s="329"/>
-      <c r="AD3" s="329"/>
-      <c r="AE3" s="329"/>
-      <c r="AF3" s="329"/>
-      <c r="AG3" s="329"/>
-      <c r="AH3" s="329"/>
-      <c r="AI3" s="329"/>
-      <c r="AJ3" s="329"/>
-      <c r="AK3" s="329"/>
-      <c r="AL3" s="329"/>
-      <c r="AM3" s="329"/>
-      <c r="AN3" s="329"/>
-      <c r="AO3" s="329"/>
-      <c r="AP3" s="329"/>
-      <c r="AQ3" s="329"/>
-      <c r="AR3" s="329"/>
-      <c r="AS3" s="329"/>
-      <c r="AT3" s="329"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="341"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
+      <c r="M3" s="341"/>
+      <c r="N3" s="341"/>
+      <c r="O3" s="341"/>
+      <c r="P3" s="341"/>
+      <c r="Q3" s="341"/>
+      <c r="R3" s="341"/>
+      <c r="S3" s="341"/>
+      <c r="T3" s="341"/>
+      <c r="U3" s="341"/>
+      <c r="V3" s="341"/>
+      <c r="W3" s="341"/>
+      <c r="X3" s="341"/>
+      <c r="Y3" s="341"/>
+      <c r="Z3" s="341"/>
+      <c r="AA3" s="341"/>
+      <c r="AB3" s="341"/>
+      <c r="AC3" s="341"/>
+      <c r="AD3" s="341"/>
+      <c r="AE3" s="341"/>
+      <c r="AF3" s="341"/>
+      <c r="AG3" s="341"/>
+      <c r="AH3" s="341"/>
+      <c r="AI3" s="341"/>
+      <c r="AJ3" s="341"/>
+      <c r="AK3" s="341"/>
+      <c r="AL3" s="341"/>
+      <c r="AM3" s="341"/>
+      <c r="AN3" s="341"/>
+      <c r="AO3" s="341"/>
+      <c r="AP3" s="341"/>
+      <c r="AQ3" s="341"/>
+      <c r="AR3" s="341"/>
+      <c r="AS3" s="341"/>
+      <c r="AT3" s="341"/>
     </row>
     <row r="4" spans="1:56">
-      <c r="A4" s="330" t="s">
+      <c r="A4" s="329" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="330"/>
+      <c r="B4" s="329"/>
       <c r="C4" s="179"/>
       <c r="D4" s="179">
         <v>665215</v>
@@ -8803,10 +8803,10 @@
       <c r="L4" s="181">
         <v>0</v>
       </c>
-      <c r="M4" s="330">
+      <c r="M4" s="329">
         <v>2800</v>
       </c>
-      <c r="N4" s="330"/>
+      <c r="N4" s="329"/>
       <c r="O4" s="181">
         <v>1320</v>
       </c>
@@ -8835,24 +8835,24 @@
         <v>389</v>
       </c>
       <c r="AB4" s="180"/>
-      <c r="AC4" s="331"/>
-      <c r="AD4" s="331"/>
-      <c r="AE4" s="331"/>
-      <c r="AF4" s="331"/>
-      <c r="AG4" s="331"/>
-      <c r="AH4" s="331"/>
-      <c r="AI4" s="331"/>
-      <c r="AJ4" s="331"/>
-      <c r="AK4" s="331"/>
-      <c r="AL4" s="331"/>
-      <c r="AM4" s="331"/>
-      <c r="AN4" s="331"/>
-      <c r="AO4" s="331"/>
-      <c r="AP4" s="331"/>
-      <c r="AQ4" s="331"/>
-      <c r="AR4" s="331"/>
-      <c r="AS4" s="331"/>
-      <c r="AT4" s="331"/>
+      <c r="AC4" s="330"/>
+      <c r="AD4" s="330"/>
+      <c r="AE4" s="330"/>
+      <c r="AF4" s="330"/>
+      <c r="AG4" s="330"/>
+      <c r="AH4" s="330"/>
+      <c r="AI4" s="330"/>
+      <c r="AJ4" s="330"/>
+      <c r="AK4" s="330"/>
+      <c r="AL4" s="330"/>
+      <c r="AM4" s="330"/>
+      <c r="AN4" s="330"/>
+      <c r="AO4" s="330"/>
+      <c r="AP4" s="330"/>
+      <c r="AQ4" s="330"/>
+      <c r="AR4" s="330"/>
+      <c r="AS4" s="330"/>
+      <c r="AT4" s="330"/>
       <c r="AV4" s="100"/>
       <c r="AW4" s="100"/>
       <c r="AX4" s="100"/>
@@ -8864,10 +8864,10 @@
       <c r="BD4" s="100"/>
     </row>
     <row r="5" spans="1:56">
-      <c r="A5" s="330" t="s">
+      <c r="A5" s="329" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="330"/>
+      <c r="B5" s="329"/>
       <c r="C5" s="179"/>
       <c r="D5" s="179">
         <v>519480</v>
@@ -8900,24 +8900,24 @@
       <c r="Z5" s="180"/>
       <c r="AA5" s="180"/>
       <c r="AB5" s="180"/>
-      <c r="AC5" s="331"/>
-      <c r="AD5" s="331"/>
-      <c r="AE5" s="331"/>
-      <c r="AF5" s="331"/>
-      <c r="AG5" s="331"/>
-      <c r="AH5" s="331"/>
-      <c r="AI5" s="331"/>
-      <c r="AJ5" s="331"/>
-      <c r="AK5" s="331"/>
-      <c r="AL5" s="331"/>
-      <c r="AM5" s="331"/>
-      <c r="AN5" s="331"/>
-      <c r="AO5" s="331"/>
-      <c r="AP5" s="331"/>
-      <c r="AQ5" s="331"/>
-      <c r="AR5" s="331"/>
-      <c r="AS5" s="331"/>
-      <c r="AT5" s="331"/>
+      <c r="AC5" s="330"/>
+      <c r="AD5" s="330"/>
+      <c r="AE5" s="330"/>
+      <c r="AF5" s="330"/>
+      <c r="AG5" s="330"/>
+      <c r="AH5" s="330"/>
+      <c r="AI5" s="330"/>
+      <c r="AJ5" s="330"/>
+      <c r="AK5" s="330"/>
+      <c r="AL5" s="330"/>
+      <c r="AM5" s="330"/>
+      <c r="AN5" s="330"/>
+      <c r="AO5" s="330"/>
+      <c r="AP5" s="330"/>
+      <c r="AQ5" s="330"/>
+      <c r="AR5" s="330"/>
+      <c r="AS5" s="330"/>
+      <c r="AT5" s="330"/>
       <c r="AV5" s="100"/>
       <c r="AW5" s="100"/>
       <c r="AX5" s="100"/>
@@ -11419,11 +11419,11 @@
       <c r="BD28" s="100"/>
     </row>
     <row r="29" spans="1:56" s="261" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A29" s="332" t="s">
+      <c r="A29" s="331" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="333"/>
-      <c r="C29" s="333"/>
+      <c r="B29" s="332"/>
+      <c r="C29" s="332"/>
       <c r="D29" s="254">
         <f t="shared" ref="D29:AT29" si="14">SUM(D7:D28)</f>
         <v>251470</v>
@@ -11608,10 +11608,10 @@
       <c r="BD29" s="260"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1">
-      <c r="A30" s="334" t="s">
+      <c r="A30" s="333" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="335"/>
+      <c r="B30" s="334"/>
       <c r="C30" s="262"/>
       <c r="D30" s="263">
         <f t="shared" ref="D30:AB30" si="16">D4+D5-D29</f>
@@ -11802,40 +11802,40 @@
       <c r="A32" s="100"/>
       <c r="B32" s="100"/>
       <c r="C32" s="85"/>
-      <c r="D32" s="336"/>
-      <c r="E32" s="336"/>
-      <c r="F32" s="336"/>
-      <c r="G32" s="336"/>
-      <c r="H32" s="336"/>
-      <c r="I32" s="336"/>
-      <c r="J32" s="336"/>
-      <c r="K32" s="336"/>
-      <c r="L32" s="336"/>
-      <c r="M32" s="336"/>
+      <c r="D32" s="335"/>
+      <c r="E32" s="335"/>
+      <c r="F32" s="335"/>
+      <c r="G32" s="335"/>
+      <c r="H32" s="335"/>
+      <c r="I32" s="335"/>
+      <c r="J32" s="335"/>
+      <c r="K32" s="335"/>
+      <c r="L32" s="335"/>
+      <c r="M32" s="335"/>
       <c r="O32" s="272"/>
       <c r="P32" s="220"/>
       <c r="Q32" s="100"/>
       <c r="R32" s="100"/>
       <c r="S32" s="100"/>
-      <c r="AR32" s="337" t="s">
+      <c r="AR32" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="AS32" s="337"/>
-      <c r="AT32" s="337"/>
+      <c r="AS32" s="336"/>
+      <c r="AT32" s="336"/>
       <c r="AU32" s="273"/>
     </row>
     <row r="33" spans="1:48" ht="15.75">
       <c r="A33" s="100"/>
       <c r="B33" s="100"/>
       <c r="C33" s="85"/>
-      <c r="D33" s="338"/>
-      <c r="E33" s="338"/>
-      <c r="F33" s="338"/>
-      <c r="G33" s="338"/>
-      <c r="H33" s="338"/>
-      <c r="I33" s="338"/>
-      <c r="J33" s="338"/>
-      <c r="K33" s="338"/>
+      <c r="D33" s="326"/>
+      <c r="E33" s="326"/>
+      <c r="F33" s="326"/>
+      <c r="G33" s="326"/>
+      <c r="H33" s="326"/>
+      <c r="I33" s="326"/>
+      <c r="J33" s="326"/>
+      <c r="K33" s="326"/>
       <c r="L33" s="280"/>
       <c r="M33" s="280"/>
       <c r="P33" s="100"/>
@@ -11855,14 +11855,14 @@
       <c r="A34" s="100"/>
       <c r="B34" s="100"/>
       <c r="C34" s="85"/>
-      <c r="D34" s="340"/>
-      <c r="E34" s="340"/>
-      <c r="F34" s="340"/>
-      <c r="G34" s="340"/>
-      <c r="H34" s="340"/>
-      <c r="I34" s="340"/>
-      <c r="J34" s="340"/>
-      <c r="K34" s="340"/>
+      <c r="D34" s="328"/>
+      <c r="E34" s="328"/>
+      <c r="F34" s="328"/>
+      <c r="G34" s="328"/>
+      <c r="H34" s="328"/>
+      <c r="I34" s="328"/>
+      <c r="J34" s="328"/>
+      <c r="K34" s="328"/>
       <c r="L34" s="279"/>
       <c r="M34" s="281"/>
       <c r="N34" s="220"/>
@@ -11884,14 +11884,14 @@
       <c r="A35" s="100"/>
       <c r="B35" s="100"/>
       <c r="C35" s="85"/>
-      <c r="D35" s="338"/>
-      <c r="E35" s="338"/>
-      <c r="F35" s="338"/>
-      <c r="G35" s="338"/>
-      <c r="H35" s="338"/>
-      <c r="I35" s="338"/>
-      <c r="J35" s="338"/>
-      <c r="K35" s="338"/>
+      <c r="D35" s="326"/>
+      <c r="E35" s="326"/>
+      <c r="F35" s="326"/>
+      <c r="G35" s="326"/>
+      <c r="H35" s="326"/>
+      <c r="I35" s="326"/>
+      <c r="J35" s="326"/>
+      <c r="K35" s="326"/>
       <c r="L35" s="280"/>
       <c r="M35" s="281"/>
       <c r="O35" s="100"/>
@@ -11910,14 +11910,14 @@
       <c r="A36" s="100"/>
       <c r="B36" s="100"/>
       <c r="C36" s="85"/>
-      <c r="D36" s="338"/>
-      <c r="E36" s="338"/>
-      <c r="F36" s="338"/>
-      <c r="G36" s="338"/>
-      <c r="H36" s="338"/>
-      <c r="I36" s="338"/>
-      <c r="J36" s="338"/>
-      <c r="K36" s="338"/>
+      <c r="D36" s="326"/>
+      <c r="E36" s="326"/>
+      <c r="F36" s="326"/>
+      <c r="G36" s="326"/>
+      <c r="H36" s="326"/>
+      <c r="I36" s="326"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="326"/>
       <c r="L36" s="280"/>
       <c r="M36" s="281"/>
       <c r="O36" s="100"/>
@@ -11936,14 +11936,14 @@
       <c r="A37" s="100"/>
       <c r="B37" s="100"/>
       <c r="C37" s="85"/>
-      <c r="D37" s="338"/>
-      <c r="E37" s="338"/>
-      <c r="F37" s="338"/>
-      <c r="G37" s="338"/>
-      <c r="H37" s="338"/>
-      <c r="I37" s="338"/>
-      <c r="J37" s="338"/>
-      <c r="K37" s="338"/>
+      <c r="D37" s="326"/>
+      <c r="E37" s="326"/>
+      <c r="F37" s="326"/>
+      <c r="G37" s="326"/>
+      <c r="H37" s="326"/>
+      <c r="I37" s="326"/>
+      <c r="J37" s="326"/>
+      <c r="K37" s="326"/>
       <c r="L37" s="282"/>
       <c r="M37" s="281"/>
       <c r="O37" s="272"/>
@@ -11959,14 +11959,14 @@
       <c r="A38" s="276"/>
       <c r="B38" s="276"/>
       <c r="C38" s="85"/>
-      <c r="D38" s="338"/>
-      <c r="E38" s="338"/>
-      <c r="F38" s="338"/>
-      <c r="G38" s="338"/>
-      <c r="H38" s="338"/>
-      <c r="I38" s="338"/>
-      <c r="J38" s="338"/>
-      <c r="K38" s="338"/>
+      <c r="D38" s="326"/>
+      <c r="E38" s="326"/>
+      <c r="F38" s="326"/>
+      <c r="G38" s="326"/>
+      <c r="H38" s="326"/>
+      <c r="I38" s="326"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="326"/>
       <c r="L38" s="280"/>
       <c r="M38" s="280"/>
       <c r="AR38" s="76">
@@ -11981,14 +11981,14 @@
       <c r="A39" s="100"/>
       <c r="B39" s="100"/>
       <c r="C39" s="85"/>
-      <c r="D39" s="338"/>
-      <c r="E39" s="338"/>
-      <c r="F39" s="338"/>
-      <c r="G39" s="338"/>
-      <c r="H39" s="338"/>
-      <c r="I39" s="338"/>
-      <c r="J39" s="338"/>
-      <c r="K39" s="338"/>
+      <c r="D39" s="326"/>
+      <c r="E39" s="326"/>
+      <c r="F39" s="326"/>
+      <c r="G39" s="326"/>
+      <c r="H39" s="326"/>
+      <c r="I39" s="326"/>
+      <c r="J39" s="326"/>
+      <c r="K39" s="326"/>
       <c r="L39" s="282"/>
       <c r="M39" s="281"/>
       <c r="AR39" s="225">
@@ -12003,14 +12003,14 @@
       <c r="A40" s="100"/>
       <c r="B40" s="100"/>
       <c r="C40" s="85"/>
-      <c r="D40" s="339"/>
-      <c r="E40" s="339"/>
-      <c r="F40" s="339"/>
-      <c r="G40" s="339"/>
-      <c r="H40" s="339"/>
-      <c r="I40" s="339"/>
-      <c r="J40" s="339"/>
-      <c r="K40" s="339"/>
+      <c r="D40" s="327"/>
+      <c r="E40" s="327"/>
+      <c r="F40" s="327"/>
+      <c r="G40" s="327"/>
+      <c r="H40" s="327"/>
+      <c r="I40" s="327"/>
+      <c r="J40" s="327"/>
+      <c r="K40" s="327"/>
       <c r="L40" s="283"/>
       <c r="M40" s="284"/>
       <c r="AO40" s="277"/>
@@ -12081,7 +12081,7 @@
       <c r="E44" s="100"/>
       <c r="F44" s="100"/>
       <c r="G44" s="100"/>
-      <c r="AR44" s="341">
+      <c r="AR44" s="285">
         <f>SUM(AR33:AR43)</f>
         <v>75257</v>
       </c>
@@ -12776,6 +12776,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:AT1"/>
+    <mergeCell ref="A2:AT2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:AT3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="AC4:AT4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AC5:AT5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="AR32:AT32"/>
     <mergeCell ref="D39:K39"/>
     <mergeCell ref="D40:K40"/>
     <mergeCell ref="D33:K33"/>
@@ -12784,19 +12797,6 @@
     <mergeCell ref="D36:K36"/>
     <mergeCell ref="D37:K37"/>
     <mergeCell ref="D38:K38"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AC5:AT5"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="AR32:AT32"/>
-    <mergeCell ref="A1:AT1"/>
-    <mergeCell ref="A2:AT2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:AT3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="AC4:AT4"/>
   </mergeCells>
   <conditionalFormatting sqref="AP7:AP28">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
